--- a/assets/images/thesis/thesis.xlsx
+++ b/assets/images/thesis/thesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\werk\workspace\7TMRI-website\assets\images\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550D388-F1FE-4202-B6AD-DFFC597133A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC313E-52AF-43EF-9D9D-9FF95726F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-5415" windowWidth="18240" windowHeight="29040" xr2:uid="{E58FB8B6-D8AA-480A-AEFC-AA734A0EE2C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E58FB8B6-D8AA-480A-AEFC-AA734A0EE2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B22" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,1068 +1222,1068 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1">
         <v>2011</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1">
         <v>2011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>2012</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>2012</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>2013</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>2013</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
         <v>2013</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>2014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1">
         <v>2014</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1">
         <v>2014</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>2014</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B24" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B28" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B29" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="B30" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>192</v>
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B34" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="B35" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="B36" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="B39" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>67</v>
+        <v>191</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="B40" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="B41" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="B44" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>227</v>
+        <v>15</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B48" s="1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B51" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B52" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1048576">
-    <sortCondition ref="B1:B1048576"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
+    <sortCondition ref="B22:B52"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" xr:uid="{AA0A74AE-CD9A-49D1-8885-F87B88FBBC99}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{32F241D5-8DA1-445C-B0C8-5F86CCEFF4DA}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{25A6E7C5-75AC-41F2-BEB8-A0ABA80ACBEA}"/>
-    <hyperlink ref="E38" r:id="rId4" xr:uid="{1A8C7776-FF95-45CA-8876-69807839670E}"/>
-    <hyperlink ref="E19" r:id="rId5" xr:uid="{9A2C67A4-DDDA-430F-AADD-5067EC6CDADD}"/>
-    <hyperlink ref="E35" r:id="rId6" xr:uid="{75FC55A1-6040-4DDA-AD12-2805A2E53454}"/>
-    <hyperlink ref="E21" r:id="rId7" xr:uid="{573EA2FE-4C68-41D7-8B37-582CC5F3FCE3}"/>
-    <hyperlink ref="E30" r:id="rId8" xr:uid="{1EF117A1-00CE-4062-980C-975878384D76}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{9910D9EB-C443-4359-AD8D-63A172FC78F0}"/>
-    <hyperlink ref="E8" r:id="rId10" xr:uid="{0D082E78-3991-4B43-9237-AA83ED52AE65}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{430DC9DC-E41A-4A20-A844-603D31C4C08C}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{F80336A2-5DB4-4D0E-819D-9C6993EA8562}"/>
-    <hyperlink ref="E39" r:id="rId13" xr:uid="{00366242-554B-4AB7-8BF3-D4E305B19064}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{0BC84BD1-D982-4979-B93D-A71506E5AEFA}"/>
-    <hyperlink ref="E2" r:id="rId15" xr:uid="{F61FCEEE-2211-47B0-A851-49B65E7A2736}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{E9534E0D-8195-4D9F-8772-313A148D3866}"/>
-    <hyperlink ref="E16" r:id="rId17" xr:uid="{EC1097D8-3951-497B-88B4-78B2F2C94016}"/>
-    <hyperlink ref="E31" r:id="rId18" xr:uid="{4251FB81-36AE-4E75-80DB-7C50D62D0F8C}"/>
-    <hyperlink ref="E26" r:id="rId19" xr:uid="{44B25B0D-55CE-4993-B05D-AF74D90237DE}"/>
-    <hyperlink ref="E36" r:id="rId20" xr:uid="{5FDBD001-19C8-4E18-AE49-BCA9CBE34EFC}"/>
-    <hyperlink ref="E15" r:id="rId21" xr:uid="{63C8CD6F-BE9B-4415-808F-D840344C6D84}"/>
-    <hyperlink ref="E20" r:id="rId22" xr:uid="{569AF564-FA35-4B67-A2D2-5B01AF9A6F8F}"/>
-    <hyperlink ref="E25" r:id="rId23" xr:uid="{9CB67BA7-2252-43FD-BF44-787B6A5D8096}"/>
-    <hyperlink ref="E27" r:id="rId24" xr:uid="{BF379BA6-35DC-4817-9AD7-DB3F8831E5BB}"/>
-    <hyperlink ref="E34" r:id="rId25" xr:uid="{3EBD58BC-4DFF-42C3-811E-15A9135CBBB3}"/>
-    <hyperlink ref="E41" r:id="rId26" xr:uid="{D47DD42F-D277-4B84-B0D7-5B963ED2EA46}"/>
-    <hyperlink ref="E42" r:id="rId27" xr:uid="{84F4B7BC-2C26-4FAF-B649-8CB163C297AA}"/>
-    <hyperlink ref="E40" r:id="rId28" xr:uid="{DA278AC4-34F4-41BF-BC1B-324A8D826EFF}"/>
-    <hyperlink ref="E23" r:id="rId29" xr:uid="{36E49422-A439-4E66-9981-DD5871E6B546}"/>
-    <hyperlink ref="E7" r:id="rId30" xr:uid="{02B53ECB-AB14-46F6-8B1C-3D42A0081B3F}"/>
-    <hyperlink ref="E17" r:id="rId31" xr:uid="{F2BC4745-418E-4EEC-A665-F899AB746D2F}"/>
-    <hyperlink ref="E3" r:id="rId32" xr:uid="{45A56C12-3F7F-4780-87FA-1D25C3A44121}"/>
-    <hyperlink ref="E4" r:id="rId33" xr:uid="{E2F956D4-A781-4085-B1B7-A2CB453F037B}"/>
-    <hyperlink ref="E18" r:id="rId34" xr:uid="{C2EE45CC-28AC-4CD8-AE6B-A1BF2AC6D89B}"/>
-    <hyperlink ref="E11" r:id="rId35" xr:uid="{F4113E10-4D79-4F03-8E98-482A5E915555}"/>
-    <hyperlink ref="E12" r:id="rId36" xr:uid="{146508A9-7048-401E-9720-300E4890808A}"/>
-    <hyperlink ref="E28" r:id="rId37" xr:uid="{9C238041-AA9D-48F3-97CF-3D62F3A19F82}"/>
-    <hyperlink ref="E32" r:id="rId38" xr:uid="{7317930C-B723-41CA-967A-B1F2D964A86C}"/>
-    <hyperlink ref="E29" r:id="rId39" xr:uid="{726706F4-BBC2-4B1D-9DBE-827291F61FC8}"/>
-    <hyperlink ref="E33" r:id="rId40" xr:uid="{2B73A460-AD26-4560-99E4-F7A38211A4CF}"/>
-    <hyperlink ref="E24" r:id="rId41" xr:uid="{14901D71-3619-40CA-A658-73E761A16C93}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{94E31620-DD9F-4194-B4CC-DE050513C7A8}"/>
-    <hyperlink ref="E45" r:id="rId43" xr:uid="{EFE374CA-CBB7-4FB7-B83D-1B4A28EE8F0F}"/>
-    <hyperlink ref="E47" r:id="rId44" xr:uid="{D3BFA0F7-94FB-453B-9EF2-0446BE661E30}"/>
-    <hyperlink ref="E48" r:id="rId45" xr:uid="{F203F7B3-E801-45A6-B8B6-224485C1F950}"/>
-    <hyperlink ref="E49" r:id="rId46" xr:uid="{8A9A8275-88A0-42FC-8320-0DFD42E7DDBB}"/>
-    <hyperlink ref="E50" r:id="rId47" xr:uid="{52F69C1A-5C74-4068-BC0A-FBF669DE196D}"/>
-    <hyperlink ref="E52" r:id="rId48" xr:uid="{6F7649B6-D1B5-478B-B8E1-865D8721D2AB}"/>
+    <hyperlink ref="E45" r:id="rId1" xr:uid="{AA0A74AE-CD9A-49D1-8885-F87B88FBBC99}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{32F241D5-8DA1-445C-B0C8-5F86CCEFF4DA}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{25A6E7C5-75AC-41F2-BEB8-A0ABA80ACBEA}"/>
+    <hyperlink ref="E46" r:id="rId4" xr:uid="{1A8C7776-FF95-45CA-8876-69807839670E}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{9A2C67A4-DDDA-430F-AADD-5067EC6CDADD}"/>
+    <hyperlink ref="E42" r:id="rId6" xr:uid="{75FC55A1-6040-4DDA-AD12-2805A2E53454}"/>
+    <hyperlink ref="E25" r:id="rId7" xr:uid="{573EA2FE-4C68-41D7-8B37-582CC5F3FCE3}"/>
+    <hyperlink ref="E37" r:id="rId8" xr:uid="{1EF117A1-00CE-4062-980C-975878384D76}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{9910D9EB-C443-4359-AD8D-63A172FC78F0}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{0D082E78-3991-4B43-9237-AA83ED52AE65}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{430DC9DC-E41A-4A20-A844-603D31C4C08C}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{F80336A2-5DB4-4D0E-819D-9C6993EA8562}"/>
+    <hyperlink ref="E47" r:id="rId13" xr:uid="{00366242-554B-4AB7-8BF3-D4E305B19064}"/>
+    <hyperlink ref="E26" r:id="rId14" xr:uid="{0BC84BD1-D982-4979-B93D-A71506E5AEFA}"/>
+    <hyperlink ref="E3" r:id="rId15" xr:uid="{F61FCEEE-2211-47B0-A851-49B65E7A2736}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{E9534E0D-8195-4D9F-8772-313A148D3866}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{EC1097D8-3951-497B-88B4-78B2F2C94016}"/>
+    <hyperlink ref="E38" r:id="rId18" xr:uid="{4251FB81-36AE-4E75-80DB-7C50D62D0F8C}"/>
+    <hyperlink ref="E32" r:id="rId19" xr:uid="{44B25B0D-55CE-4993-B05D-AF74D90237DE}"/>
+    <hyperlink ref="E43" r:id="rId20" xr:uid="{5FDBD001-19C8-4E18-AE49-BCA9CBE34EFC}"/>
+    <hyperlink ref="E17" r:id="rId21" xr:uid="{63C8CD6F-BE9B-4415-808F-D840344C6D84}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{569AF564-FA35-4B67-A2D2-5B01AF9A6F8F}"/>
+    <hyperlink ref="E31" r:id="rId23" xr:uid="{9CB67BA7-2252-43FD-BF44-787B6A5D8096}"/>
+    <hyperlink ref="E33" r:id="rId24" xr:uid="{BF379BA6-35DC-4817-9AD7-DB3F8831E5BB}"/>
+    <hyperlink ref="E41" r:id="rId25" xr:uid="{3EBD58BC-4DFF-42C3-811E-15A9135CBBB3}"/>
+    <hyperlink ref="E49" r:id="rId26" xr:uid="{D47DD42F-D277-4B84-B0D7-5B963ED2EA46}"/>
+    <hyperlink ref="E50" r:id="rId27" xr:uid="{84F4B7BC-2C26-4FAF-B649-8CB163C297AA}"/>
+    <hyperlink ref="E48" r:id="rId28" xr:uid="{DA278AC4-34F4-41BF-BC1B-324A8D826EFF}"/>
+    <hyperlink ref="E27" r:id="rId29" xr:uid="{36E49422-A439-4E66-9981-DD5871E6B546}"/>
+    <hyperlink ref="E8" r:id="rId30" xr:uid="{02B53ECB-AB14-46F6-8B1C-3D42A0081B3F}"/>
+    <hyperlink ref="E19" r:id="rId31" xr:uid="{F2BC4745-418E-4EEC-A665-F899AB746D2F}"/>
+    <hyperlink ref="E4" r:id="rId32" xr:uid="{45A56C12-3F7F-4780-87FA-1D25C3A44121}"/>
+    <hyperlink ref="E5" r:id="rId33" xr:uid="{E2F956D4-A781-4085-B1B7-A2CB453F037B}"/>
+    <hyperlink ref="E20" r:id="rId34" xr:uid="{C2EE45CC-28AC-4CD8-AE6B-A1BF2AC6D89B}"/>
+    <hyperlink ref="E13" r:id="rId35" xr:uid="{F4113E10-4D79-4F03-8E98-482A5E915555}"/>
+    <hyperlink ref="E14" r:id="rId36" xr:uid="{146508A9-7048-401E-9720-300E4890808A}"/>
+    <hyperlink ref="E34" r:id="rId37" xr:uid="{9C238041-AA9D-48F3-97CF-3D62F3A19F82}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{7317930C-B723-41CA-967A-B1F2D964A86C}"/>
+    <hyperlink ref="E35" r:id="rId39" xr:uid="{726706F4-BBC2-4B1D-9DBE-827291F61FC8}"/>
+    <hyperlink ref="E40" r:id="rId40" xr:uid="{2B73A460-AD26-4560-99E4-F7A38211A4CF}"/>
+    <hyperlink ref="E28" r:id="rId41" xr:uid="{14901D71-3619-40CA-A658-73E761A16C93}"/>
+    <hyperlink ref="E21" r:id="rId42" xr:uid="{94E31620-DD9F-4194-B4CC-DE050513C7A8}"/>
+    <hyperlink ref="E24" r:id="rId43" xr:uid="{EFE374CA-CBB7-4FB7-B83D-1B4A28EE8F0F}"/>
+    <hyperlink ref="E2" r:id="rId44" xr:uid="{D3BFA0F7-94FB-453B-9EF2-0446BE661E30}"/>
+    <hyperlink ref="E9" r:id="rId45" xr:uid="{F203F7B3-E801-45A6-B8B6-224485C1F950}"/>
+    <hyperlink ref="E51" r:id="rId46" xr:uid="{8A9A8275-88A0-42FC-8320-0DFD42E7DDBB}"/>
+    <hyperlink ref="E52" r:id="rId47" xr:uid="{52F69C1A-5C74-4068-BC0A-FBF669DE196D}"/>
+    <hyperlink ref="E44" r:id="rId48" xr:uid="{6F7649B6-D1B5-478B-B8E1-865D8721D2AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>

--- a/assets/images/thesis/thesis.xlsx
+++ b/assets/images/thesis/thesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\werk\workspace\7TMRI-website\assets\images\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Werk\workspace\7TMRI-website\assets\images\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC313E-52AF-43EF-9D9D-9FF95726F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704A5EC-63B6-43AE-83BC-DEAA403EA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E58FB8B6-D8AA-480A-AEFC-AA734A0EE2C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E58FB8B6-D8AA-480A-AEFC-AA734A0EE2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="325">
   <si>
     <t>9789039357064</t>
   </si>
@@ -808,6 +808,207 @@
   </si>
   <si>
     <t>Janot Tokaya</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/451472</t>
+  </si>
+  <si>
+    <t>Quantitative MRI for measuring cardiac-induced brain tissue pulsations in humans</t>
+  </si>
+  <si>
+    <t>9789464695793</t>
+  </si>
+  <si>
+    <t>adams.png</t>
+  </si>
+  <si>
+    <t>Ayodeji Adams</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Perinatal asphyxia: predicting and improving outcome</t>
+  </si>
+  <si>
+    <t>9789039373163</t>
+  </si>
+  <si>
+    <t>annink.png</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/399467</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Kim Annink</t>
+  </si>
+  <si>
+    <t>9789038660714</t>
+  </si>
+  <si>
+    <t>Sebastiaan Harrevelt</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>harrevelt.png</t>
+  </si>
+  <si>
+    <t>https://research.tue.nl/en/publications/enhancing-ultra-high-field-mri-through-data-driven-techniques/</t>
+  </si>
+  <si>
+    <t>Enhancing ultra-high field MRI through data-driven techniques</t>
+  </si>
+  <si>
+    <t>In vivo validation of Magnetic Resonance Spin Tomography in Time-domain</t>
+  </si>
+  <si>
+    <t>Oscar van der Heide</t>
+  </si>
+  <si>
+    <t>heide.png</t>
+  </si>
+  <si>
+    <t>9789039376393</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/433708</t>
+  </si>
+  <si>
+    <t>lindenholz.png</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>meliado.png</t>
+  </si>
+  <si>
+    <t>9789039375853</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/432099</t>
+  </si>
+  <si>
+    <t>RF safety assessment in ultra-high field MRI: New approaches to reduce local SAR estimation errors</t>
+  </si>
+  <si>
+    <t>Flavio Meliadò</t>
+  </si>
+  <si>
+    <t>Exploring Cerebral Perforating Artery Function in Small Vessel Disease With 7 Tesla MRI</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/457140</t>
+  </si>
+  <si>
+    <t>9789465064741</t>
+  </si>
+  <si>
+    <t>onkenhout.png</t>
+  </si>
+  <si>
+    <t>Laurien Onkenhout</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Methodological Advances in Ultra-high Field Metabolic MRI in Cancer</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/457095</t>
+  </si>
+  <si>
+    <t>9789083494746</t>
+  </si>
+  <si>
+    <t>shams.png</t>
+  </si>
+  <si>
+    <t>Zahra Shams</t>
+  </si>
+  <si>
+    <t>https://research.tue.nl/en/publications/mri-safety-of-implants-measurement-and-model-based-tools-for-vali/</t>
+  </si>
+  <si>
+    <t>MRI safety of implants: measurement and model-based tools for validation and calculation of RF field interactions</t>
+  </si>
+  <si>
+    <t>9789038655260</t>
+  </si>
+  <si>
+    <t>stijnman.png</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Peter Stijnman</t>
+  </si>
+  <si>
+    <t>tuil.png</t>
+  </si>
+  <si>
+    <t>Mapping cerebrovascular hemodynamics with MRI: insights in hemodynamic variation in health and disease</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/430135</t>
+  </si>
+  <si>
+    <t>9789464731880</t>
+  </si>
+  <si>
+    <t>Rick van Tuijl</t>
+  </si>
+  <si>
+    <t>veersema.png</t>
+  </si>
+  <si>
+    <t>Tim Veersema</t>
+  </si>
+  <si>
+    <t>9789464230116</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/400260</t>
+  </si>
+  <si>
+    <t>Epilepsy Surgery for Focal Cortical Dysplasia: Clinicopathological Correlates and Advances in Neuroimaging</t>
+  </si>
+  <si>
+    <t>versteeg.png</t>
+  </si>
+  <si>
+    <t>zwartbol.png</t>
+  </si>
+  <si>
+    <t>9789039375426</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/427144</t>
+  </si>
+  <si>
+    <t>A plug-and-play gradient insert for fast and silent MRI</t>
+  </si>
+  <si>
+    <t>Edwin Versteeg</t>
+  </si>
+  <si>
+    <t>Connecting Large and Small Vessels in Cerebrovascular Disease</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/handle/1874/451528</t>
+  </si>
+  <si>
+    <t>9789493330801</t>
+  </si>
+  <si>
+    <t>Maarten Zwartbol</t>
   </si>
 </sst>
 </file>
@@ -860,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -869,6 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,9 +1090,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -928,7 +1130,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1034,7 +1236,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1176,7 +1378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BB17E1-6E3A-4FB1-83FD-0B749646BBFA}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B1:B1048576"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,9 +2433,269 @@
         <v>247</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
-    <sortCondition ref="B22:B52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+    <sortCondition ref="B66"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E45" r:id="rId1" xr:uid="{AA0A74AE-CD9A-49D1-8885-F87B88FBBC99}"/>
@@ -2284,8 +2746,21 @@
     <hyperlink ref="E51" r:id="rId46" xr:uid="{8A9A8275-88A0-42FC-8320-0DFD42E7DDBB}"/>
     <hyperlink ref="E52" r:id="rId47" xr:uid="{52F69C1A-5C74-4068-BC0A-FBF669DE196D}"/>
     <hyperlink ref="E44" r:id="rId48" xr:uid="{6F7649B6-D1B5-478B-B8E1-865D8721D2AB}"/>
+    <hyperlink ref="E57" r:id="rId49" xr:uid="{3DD03F77-1A2B-403B-B826-B029F8608B2E}"/>
+    <hyperlink ref="E53" r:id="rId50" xr:uid="{2F6DE39C-2458-4E88-A716-2DBA44BE36D5}"/>
+    <hyperlink ref="E61" r:id="rId51" xr:uid="{A6A89AF6-4441-46BD-9113-D86B46D207B6}"/>
+    <hyperlink ref="E62" r:id="rId52" xr:uid="{411D24FB-8724-4961-B0D7-4AAC70DA0FCC}"/>
+    <hyperlink ref="E55" r:id="rId53" xr:uid="{ABC7B45C-9267-4F91-A2D3-506B11A463D1}"/>
+    <hyperlink ref="E58" r:id="rId54" xr:uid="{4111A401-CC31-4ABC-A336-833BC2213FF0}"/>
+    <hyperlink ref="E64" r:id="rId55" xr:uid="{9DBCF81C-EDB1-4386-9A27-5148D66719FE}"/>
+    <hyperlink ref="E65" r:id="rId56" xr:uid="{B533BA28-4552-45AD-9C26-0FD35CC7CBB9}"/>
+    <hyperlink ref="E56" r:id="rId57" xr:uid="{A2C3FFC2-5175-4777-A534-91530A64E58E}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{985822D4-EA50-4DEB-94B6-A3505CB1D1DD}"/>
+    <hyperlink ref="E54" r:id="rId59" xr:uid="{253E7F00-99E1-4B28-B5D9-3A36D20E1E9F}"/>
+    <hyperlink ref="E60" r:id="rId60" xr:uid="{DB7C5E97-5332-45D3-8A44-E64C11F37E9A}"/>
+    <hyperlink ref="E63" r:id="rId61" xr:uid="{DC47FA0D-0950-4C67-AAD8-1FF63EC95E3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/assets/images/thesis/thesis.xlsx
+++ b/assets/images/thesis/thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Werk\workspace\7TMRI-website\assets\images\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704A5EC-63B6-43AE-83BC-DEAA403EA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C4FA32-2278-4530-9DF5-648B7DCAEAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E58FB8B6-D8AA-480A-AEFC-AA734A0EE2C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="319">
   <si>
     <t>9789039357064</t>
   </si>
@@ -825,9 +825,6 @@
     <t>Ayodeji Adams</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>Perinatal asphyxia: predicting and improving outcome</t>
   </si>
   <si>
@@ -840,9 +837,6 @@
     <t>https://dspace.library.uu.nl/handle/1874/399467</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>Kim Annink</t>
   </si>
   <si>
@@ -852,9 +846,6 @@
     <t>Sebastiaan Harrevelt</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>harrevelt.png</t>
   </si>
   <si>
@@ -882,9 +873,6 @@
     <t>lindenholz.png</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>meliado.png</t>
   </si>
   <si>
@@ -915,9 +903,6 @@
     <t>Laurien Onkenhout</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>Methodological Advances in Ultra-high Field Metabolic MRI in Cancer</t>
   </si>
   <si>
@@ -943,9 +928,6 @@
   </si>
   <si>
     <t>stijnman.png</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
   <si>
     <t>Peter Stijnman</t>
@@ -1061,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1071,6 +1053,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1389,13 +1374,13 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="B54" sqref="B54:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -1406,7 +1391,7 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1426,7 +1411,7 @@
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>2010</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1446,7 +1431,7 @@
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>2011</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1466,7 +1451,7 @@
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>2011</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1486,7 +1471,7 @@
       <c r="A5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>2011</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1506,7 +1491,7 @@
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>2012</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1526,7 +1511,7 @@
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>2012</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1546,7 +1531,7 @@
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>2012</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1566,7 +1551,7 @@
       <c r="A9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>2012</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1586,7 +1571,7 @@
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>2013</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1606,7 +1591,7 @@
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>2013</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1626,7 +1611,7 @@
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>2013</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1646,7 +1631,7 @@
       <c r="A13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>2013</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1666,7 +1651,7 @@
       <c r="A14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>2013</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1686,7 +1671,7 @@
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>2014</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1706,7 +1691,7 @@
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>2014</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1726,7 +1711,7 @@
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>2014</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1746,7 +1731,7 @@
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>2014</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1766,7 +1751,7 @@
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>2014</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1786,7 +1771,7 @@
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>2014</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1806,7 +1791,7 @@
       <c r="A21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>2014</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1826,7 +1811,7 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>2015</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1846,7 +1831,7 @@
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>2015</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1866,7 +1851,7 @@
       <c r="A24" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>2015</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1886,7 +1871,7 @@
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>2016</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1906,7 +1891,7 @@
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>2016</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1926,7 +1911,7 @@
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>2016</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1946,7 +1931,7 @@
       <c r="A28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>2016</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1966,7 +1951,7 @@
       <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>2016</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1983,7 +1968,7 @@
       <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>2016</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2000,7 +1985,7 @@
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="8">
         <v>2017</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2020,7 +2005,7 @@
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="8">
         <v>2017</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2040,7 +2025,7 @@
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>2017</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2060,7 +2045,7 @@
       <c r="A34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="8">
         <v>2017</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2080,7 +2065,7 @@
       <c r="A35" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>2017</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2100,7 +2085,7 @@
       <c r="A36" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="8">
         <v>2017</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2117,7 +2102,7 @@
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="8">
         <v>2018</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2137,7 +2122,7 @@
       <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="8">
         <v>2018</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2157,7 +2142,7 @@
       <c r="A39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="8">
         <v>2018</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2177,7 +2162,7 @@
       <c r="A40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="8">
         <v>2018</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2197,7 +2182,7 @@
       <c r="A41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="8">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2217,7 +2202,7 @@
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="8">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2237,7 +2222,7 @@
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="8">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2257,7 +2242,7 @@
       <c r="A44" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2277,7 +2262,7 @@
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="8">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2297,7 +2282,7 @@
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="8">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2317,7 +2302,7 @@
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="8">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2337,7 +2322,7 @@
       <c r="A48" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="8">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2357,7 +2342,7 @@
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2377,7 +2362,7 @@
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2397,7 +2382,7 @@
       <c r="A51" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2417,7 +2402,7 @@
       <c r="A52" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2435,53 +2420,53 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2020</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="F53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2020</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>282</v>
+      <c r="B55" s="9">
+        <v>2021</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>110</v>
@@ -2495,30 +2480,30 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2022</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>263</v>
+      <c r="B57" s="9">
+        <v>2023</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>261</v>
@@ -2535,162 +2520,162 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2023</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>263</v>
+        <v>303</v>
+      </c>
+      <c r="B59" s="9">
+        <v>2023</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>263</v>
+        <v>314</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2023</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="F62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>272</v>
+        <v>318</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2024</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="F63" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2025</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F64" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B65" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="B65" s="9">
+        <v>2025</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
